--- a/Checklist_Hoanthanhfunction.xlsx
+++ b/Checklist_Hoanthanhfunction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Android gửi xuống firmware slot được chọn</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>NG</t>
+  </si>
+  <si>
+    <t>Firmware gửi hình qr code lên app (17)</t>
   </si>
 </sst>
 </file>
@@ -122,9 +125,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -135,6 +135,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +447,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +464,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -475,8 +478,8 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -487,8 +490,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -499,8 +502,8 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -511,8 +514,8 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -523,8 +526,8 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -535,8 +538,8 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -547,7 +550,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -559,11 +562,11 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -571,8 +574,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -583,19 +586,25 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
